--- a/Transfer/엄니여행.xlsx
+++ b/Transfer/엄니여행.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\03_repo\02_doc\Transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C6DFCB-2D47-4131-97DD-9C2A0A89FAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF738301-5F29-4A09-B2FA-8A49D9D05DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{DD6AF957-C43F-44E4-9CC1-B4C6F1CEF5CF}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD6AF957-C43F-44E4-9CC1-B4C6F1CEF5CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
   <si>
     <t>출발</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,6 +491,18 @@
   </si>
   <si>
     <t>도로 횡단 시 뒤로 가지 말기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,000 동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 달러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +682,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -700,10 +718,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,9 +739,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -764,7 +779,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -870,7 +885,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1012,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1023,12 +1038,13 @@
   <dimension ref="B3:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:24" x14ac:dyDescent="0.4">
@@ -1102,11 +1118,29 @@
       <c r="H11" t="s">
         <v>92</v>
       </c>
+      <c r="Q11" t="s">
+        <v>112</v>
+      </c>
+      <c r="R11" s="19">
+        <v>5685</v>
+      </c>
+      <c r="S11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>75</v>
       </c>
+      <c r="Q12" t="s">
+        <v>114</v>
+      </c>
+      <c r="R12" s="19">
+        <v>1436</v>
+      </c>
+      <c r="S12" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
@@ -1136,7 +1170,7 @@
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H16" t="s">
@@ -1144,12 +1178,12 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H18" t="s">
@@ -1291,10 +1325,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
@@ -1302,29 +1336,29 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="16"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="15"/>
       <c r="D4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="16"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="15"/>
       <c r="D5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="16"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="15"/>
       <c r="D6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="16"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
@@ -1332,15 +1366,15 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="16"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="15"/>
       <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
@@ -1348,21 +1382,21 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="16"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="15"/>
       <c r="D10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="16"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15"/>
       <c r="D11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1370,13 +1404,13 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="10"/>
+      <c r="B13" s="12"/>
       <c r="D13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="10"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1385,7 +1419,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="10"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1394,13 +1428,13 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="10"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="10"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1409,7 +1443,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="10"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
@@ -1418,7 +1452,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="10"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1427,7 +1461,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="10"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1436,7 +1470,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="11"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1445,7 +1479,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1453,14 +1487,14 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="10"/>
+      <c r="B23" s="12"/>
       <c r="D23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="10"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D24" t="s">
@@ -1468,28 +1502,28 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="10"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="14"/>
       <c r="D25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="14"/>
       <c r="D26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="10"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="10"/>
       <c r="D27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="10"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="3" t="s">
         <v>51</v>
       </c>
@@ -1498,7 +1532,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="10"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="3" t="s">
         <v>53</v>
       </c>
@@ -1507,7 +1541,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="10"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="3" t="s">
         <v>55</v>
       </c>
@@ -1516,8 +1550,8 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="10"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
@@ -1525,14 +1559,14 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="11"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="10"/>
       <c r="D32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D33" t="s">
@@ -1540,8 +1574,8 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="10"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D34" t="s">
@@ -1549,21 +1583,21 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="10"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="14"/>
       <c r="D35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="10"/>
       <c r="D36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="10"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="3" t="s">
         <v>64</v>
       </c>
@@ -1572,19 +1606,19 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="10"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="10"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="10"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="3" t="s">
         <v>33</v>
       </c>
@@ -1593,7 +1627,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="3" t="s">
         <v>68</v>
       </c>

--- a/Transfer/엄니여행.xlsx
+++ b/Transfer/엄니여행.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\03_repo\02_doc\Transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF738301-5F29-4A09-B2FA-8A49D9D05DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717019C9-2B7C-457D-AB15-1778E1FC870C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD6AF957-C43F-44E4-9CC1-B4C6F1CEF5CF}"/>
+    <workbookView xWindow="31200" yWindow="2400" windowWidth="25275" windowHeight="11235" xr2:uid="{DD6AF957-C43F-44E4-9CC1-B4C6F1CEF5CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="120">
   <si>
     <t>출발</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,6 +503,26 @@
   </si>
   <si>
     <t>1 달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10만동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140달러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,6 +708,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -717,9 +740,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1037,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A47EBF-3AEA-4AE8-BDB9-71CB6999AA81}">
   <dimension ref="B3:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1121,7 +1141,7 @@
       <c r="Q11" t="s">
         <v>112</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="9">
         <v>5685</v>
       </c>
       <c r="S11" t="s">
@@ -1135,7 +1155,7 @@
       <c r="Q12" t="s">
         <v>114</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="9">
         <v>1436</v>
       </c>
       <c r="S12" t="s">
@@ -1168,6 +1188,12 @@
       <c r="H15" t="s">
         <v>12</v>
       </c>
+      <c r="Q15" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B16" s="8" t="s">
@@ -1176,13 +1202,28 @@
       <c r="H16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="Q16" t="s">
+        <v>116</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="Q17" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17">
+        <v>11</v>
+      </c>
+      <c r="T17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
         <v>82</v>
       </c>
@@ -1190,25 +1231,34 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="H19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="Q19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>85</v>
       </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
       <c r="H20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>86</v>
       </c>
@@ -1216,7 +1266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>87</v>
       </c>
@@ -1227,7 +1277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>88</v>
       </c>
@@ -1238,7 +1288,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>90</v>
       </c>
@@ -1246,7 +1296,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>93</v>
       </c>
@@ -1254,7 +1304,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>94</v>
       </c>
@@ -1262,27 +1312,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>101</v>
       </c>
@@ -1312,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82694604-7176-4BD2-A34B-B4DFD7977C0C}">
   <dimension ref="B3:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1325,10 +1375,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
@@ -1336,29 +1386,29 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="18"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="16"/>
       <c r="D4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="18"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
       <c r="D5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="18"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="16"/>
       <c r="D6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="18"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
@@ -1366,15 +1416,15 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="18"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16"/>
       <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="18"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
@@ -1382,21 +1432,21 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="18"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="16"/>
       <c r="D10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="18"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
       <c r="D11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1404,13 +1454,13 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="D13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1469,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1428,13 +1478,13 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1443,7 +1493,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
@@ -1452,7 +1502,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1461,7 +1511,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1470,7 +1520,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1479,7 +1529,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1487,14 +1537,14 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="D23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="12"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D24" t="s">
@@ -1502,28 +1552,28 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="12"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="15"/>
       <c r="D25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="12"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="15"/>
       <c r="D26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="12"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="11"/>
       <c r="D27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="3" t="s">
         <v>51</v>
       </c>
@@ -1532,7 +1582,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="3" t="s">
         <v>53</v>
       </c>
@@ -1541,7 +1591,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="3" t="s">
         <v>55</v>
       </c>
@@ -1550,8 +1600,8 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="12"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
@@ -1559,14 +1609,14 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="13"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="11"/>
       <c r="D32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>70</v>
       </c>
       <c r="D33" t="s">
@@ -1574,8 +1624,8 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="12"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D34" t="s">
@@ -1583,21 +1633,21 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="12"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="15"/>
       <c r="D35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="12"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
       <c r="D36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="3" t="s">
         <v>64</v>
       </c>
@@ -1606,19 +1656,19 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="3" t="s">
         <v>33</v>
       </c>
@@ -1627,7 +1677,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="13"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3" t="s">
         <v>68</v>
       </c>

--- a/Transfer/엄니여행.xlsx
+++ b/Transfer/엄니여행.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\03_repo\02_doc\Transfer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\01_Repo\01_doc\Transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717019C9-2B7C-457D-AB15-1778E1FC870C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC2B71A-8EBA-4430-B6D3-5C36B0BB9BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="2400" windowWidth="25275" windowHeight="11235" xr2:uid="{DD6AF957-C43F-44E4-9CC1-B4C6F1CEF5CF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD6AF957-C43F-44E4-9CC1-B4C6F1CEF5CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>감기약, 위장약, 대일밴드, 모기약, 두통약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>필기도구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,6 +519,10 @@
   </si>
   <si>
     <t>140달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감기약(해열제), 위장약, 대일밴드, 모기약, 두통약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +740,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,9 +762,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -799,7 +802,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -905,7 +908,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1047,7 +1050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1057,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A47EBF-3AEA-4AE8-BDB9-71CB6999AA81}">
   <dimension ref="B3:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1093,10 +1096,10 @@
         <v>78</v>
       </c>
       <c r="W3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" t="s">
         <v>102</v>
-      </c>
-      <c r="X3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.4">
@@ -1126,7 +1129,7 @@
         <v>13</v>
       </c>
       <c r="Q6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.4">
@@ -1139,13 +1142,13 @@
         <v>92</v>
       </c>
       <c r="Q11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R11" s="9">
         <v>5685</v>
       </c>
       <c r="S11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.4">
@@ -1153,13 +1156,13 @@
         <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R12" s="9">
         <v>1436</v>
       </c>
       <c r="S12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.4">
@@ -1189,7 +1192,7 @@
         <v>12</v>
       </c>
       <c r="Q15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R15">
         <v>10</v>
@@ -1203,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="Q16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R16">
         <v>10</v>
@@ -1214,21 +1217,21 @@
         <v>79</v>
       </c>
       <c r="Q17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R17">
         <v>11</v>
       </c>
       <c r="T17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.4">
@@ -1236,7 +1239,7 @@
         <v>80</v>
       </c>
       <c r="Q19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R19">
         <v>23</v>
@@ -1255,7 +1258,7 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.4">
@@ -1263,15 +1266,15 @@
         <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
@@ -1301,7 +1304,7 @@
         <v>93</v>
       </c>
       <c r="H26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.4">
@@ -1309,7 +1312,7 @@
         <v>94</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.4">
@@ -1329,27 +1332,27 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>101</v>
+      <c r="B32" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
